--- a/Data/SSB_renting_prices_2015.xlsx
+++ b/Data/SSB_renting_prices_2015.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
